--- a/results/MVSE/aminer/MVSE_aminer<l10><NCEK>87.26.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l10><NCEK>87.26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -621,26 +621,26 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="M3" t="n">
-        <v>87.08</v>
+        <v>87.23</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04</v>
+        <v>0.52</v>
       </c>
       <c r="O3" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-16_06_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_23-00_16_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>128</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -685,18 +685,82 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M4" t="n">
+        <v>87.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-16_06_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>128</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.34</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M5" t="n">
         <v>86.92</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>0.21</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-14_10_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
